--- a/Matlab files/Canola/Canola dimensions.xlsx
+++ b/Matlab files/Canola/Canola dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyubo\Desktop\Master final thesis\Masters-Final-Thesis\Matlab files\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6092E67-C593-49FD-80A2-80F67342D5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3E05E0-B99A-461D-B399-6754E3F1058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,7 +640,7 @@
   <dimension ref="C1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,6 +758,10 @@
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16"/>
+      <c r="K6" s="6" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,F3:F37)</f>
+        <v>33.3;28.13;30.36;33.3;31.24;30.52;28.6;28.38;27.64;29.79;28.87;29.62;29.39;29.09;28.9;29.28;28.39;28.35;27.6;28.88;29.07;29;28.23;29.01;29.58;28.94;29.51;29.05;28.71;29.2;28.91;28.4;32.015;32.318;30.799</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C7">
